--- a/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
+++ b/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <t>渔业船舶登记-下一环节处理人员等待出现</t>
   </si>
   <si>
-    <t>//td[text()='032570']</t>
+    <t>//td[text()='013872' ]</t>
   </si>
   <si>
     <t>渔业船舶登记-下一环节处理人员选择</t>
@@ -202,7 +202,7 @@
     <t>className</t>
   </si>
   <si>
-    <t>('btn btn-primary js-select')[2]</t>
+    <t>('btn btn-primary js-select')[1]</t>
   </si>
   <si>
     <t>渔业船舶登记-下一环节处理人员选择确定</t>
@@ -334,7 +334,7 @@
     <t>渔业船舶登记-下一环节人工指定</t>
   </si>
   <si>
-    <t>下一环节选择人工指定，选择 032570</t>
+    <t>下一环节选择人工指定，选择 013872</t>
   </si>
   <si>
     <t>sb_st_007_同意提交</t>
@@ -355,7 +355,7 @@
     <t>验证事项是否正常流转至032570</t>
   </si>
   <si>
-    <t>登录网页，输入用户名/密码：032570/11，登录后查看是否有以上接件事项，点击办理。</t>
+    <t>登录网页，输入用户名/密码：013872/11，登录后查看是否有以上接件事项，点击办理。</t>
   </si>
   <si>
     <t>正常流转且可办理</t>
@@ -411,10 +411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -443,23 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,7 +469,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +490,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,10 +510,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,7 +535,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,32 +558,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,25 +594,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,157 +774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,15 +785,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,6 +798,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -836,6 +851,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -850,41 +885,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -893,10 +893,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,16 +905,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,112 +926,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,8 +1435,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1946,8 +1946,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
+++ b/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="2"/>
+    <workbookView windowWidth="21045" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
   <si>
     <t>模块</t>
   </si>
@@ -190,7 +190,7 @@
     <t>渔业船舶登记-下一环节处理人员等待出现</t>
   </si>
   <si>
-    <t>//td[text()='013872' ]</t>
+    <t>//td[text()='000326' ]</t>
   </si>
   <si>
     <t>渔业船舶登记-下一环节处理人员选择</t>
@@ -334,7 +334,7 @@
     <t>渔业船舶登记-下一环节人工指定</t>
   </si>
   <si>
-    <t>下一环节选择人工指定，选择 013872</t>
+    <t>下一环节选择人工指定，选择 000326</t>
   </si>
   <si>
     <t>sb_st_007_同意提交</t>
@@ -347,18 +347,6 @@
   </si>
   <si>
     <t>能够正常提交</t>
-  </si>
-  <si>
-    <t>sb_st_008_事项验证办理</t>
-  </si>
-  <si>
-    <t>验证事项是否正常流转至032570</t>
-  </si>
-  <si>
-    <t>登录网页，输入用户名/密码：013872/11，登录后查看是否有以上接件事项，点击办理。</t>
-  </si>
-  <si>
-    <t>正常流转且可办理</t>
   </si>
   <si>
     <t>测试模块</t>
@@ -411,10 +399,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -443,61 +431,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +447,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +478,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -535,7 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,11 +538,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,7 +553,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,13 +582,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,169 +666,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,6 +773,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,22 +819,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,6 +835,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,30 +873,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -893,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,19 +893,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,112 +914,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1944,13 +1932,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
@@ -2077,20 +2065,6 @@
       </c>
       <c r="E8" s="15" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:5">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2104,8 +2078,8 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2123,25 +2097,25 @@
         <v>76</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -2155,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
@@ -2216,7 +2190,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -2247,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2308,7 +2282,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2322,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2336,7 +2310,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2466,7 +2440,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2491,7 +2465,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2514,7 +2488,7 @@
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
+++ b/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -399,12 +399,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,16 +423,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,9 +444,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,6 +468,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,16 +518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,8 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,22 +559,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,14 +572,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -582,13 +588,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,169 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,6 +779,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,15 +852,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,58 +874,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,10 +887,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,137 +899,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,7 +1077,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1423,7 +1432,7 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1432,8 +1441,8 @@
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="44.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="18" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="20" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1447,10 +1456,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1467,40 +1476,40 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1514,10 +1523,10 @@
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1528,10 +1537,10 @@
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1545,10 +1554,10 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1562,10 +1571,10 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1573,13 +1582,13 @@
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1590,10 +1599,10 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1604,13 +1613,13 @@
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1621,10 +1630,10 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1635,10 +1644,10 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1649,10 +1658,10 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1663,10 +1672,10 @@
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1677,10 +1686,10 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1691,10 +1700,10 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1705,10 +1714,10 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1719,10 +1728,10 @@
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1733,10 +1742,10 @@
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1747,10 +1756,10 @@
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1761,10 +1770,10 @@
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1775,10 +1784,10 @@
       <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1789,10 +1798,10 @@
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1803,10 +1812,10 @@
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1817,10 +1826,10 @@
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1831,10 +1840,10 @@
       <c r="C27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1845,10 +1854,10 @@
       <c r="C28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1859,10 +1868,10 @@
       <c r="C29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1871,21 +1880,21 @@
     </row>
     <row r="35" ht="14.25" spans="3:6">
       <c r="C35" s="8"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="23"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="23"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1898,8 +1907,8 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1912,17 +1921,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2078,8 +2088,8 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2128,7 +2138,7 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="9"/>
@@ -2235,7 +2245,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
+++ b/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="130">
   <si>
     <t>模块</t>
   </si>
@@ -152,6 +152,21 @@
   </si>
   <si>
     <t>//input[@name='certNo']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-取件方式选定</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),' 取件方式')]</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-取件方式下拉</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'取件方式')]/following-sibling::div/div/span</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-窗口自取</t>
   </si>
   <si>
     <t>渔业船舶登记-取件信息选定</t>
@@ -399,9 +414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -438,7 +453,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,30 +509,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,20 +530,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,14 +550,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -534,11 +557,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,22 +575,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,61 +603,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,115 +765,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +794,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -802,32 +856,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,26 +884,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,10 +902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,133 +914,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1430,10 +1445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1689,7 +1704,7 @@
       <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1703,7 +1718,7 @@
       <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1718,12 +1733,12 @@
         <v>9</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -1731,22 +1746,22 @@
       <c r="D19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>52</v>
+      <c r="E19" s="24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1754,12 +1769,12 @@
         <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1768,12 +1783,12 @@
         <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1782,18 +1797,18 @@
         <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -1801,49 +1816,49 @@
       <c r="D24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>63</v>
+      <c r="E24" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>65</v>
+      <c r="E25" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1851,13 +1866,13 @@
       <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="24" t="s">
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1865,36 +1880,78 @@
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="C30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="8"/>
-    </row>
-    <row r="35" ht="14.25" spans="3:6">
-      <c r="C35" s="8"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="8"/>
+    <row r="31" spans="2:5">
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
       <c r="C36" s="8"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="24"/>
+    </row>
+    <row r="38" ht="14.25" spans="3:6">
+      <c r="C38" s="8"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1907,7 +1964,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1918,12 +1975,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1945,7 +2002,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1958,123 +2015,123 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:5">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2143,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2104,33 +2161,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -2139,14 +2196,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -2162,7 +2219,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2176,7 +2233,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -2190,7 +2247,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -2200,13 +2257,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -2222,7 +2279,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -2231,12 +2288,12 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -2250,7 +2307,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -2261,7 +2318,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2272,7 +2329,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -2283,7 +2340,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -2292,12 +2349,12 @@
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -2306,12 +2363,12 @@
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
@@ -2320,7 +2377,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2328,7 +2385,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
@@ -2339,7 +2396,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -2350,7 +2407,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
@@ -2361,29 +2418,29 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
@@ -2391,13 +2448,10 @@
       <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>34</v>
@@ -2408,7 +2462,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -2417,45 +2471,45 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>34</v>
@@ -2464,9 +2518,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:5">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
@@ -2474,13 +2528,10 @@
       <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
@@ -2488,17 +2539,56 @@
       <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" ht="14.25" spans="3:5">
-      <c r="C30" s="8"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="8"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="1" t="s">
-        <v>124</v>
+      <c r="D29" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:5">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="3:5">
+      <c r="C33" s="8"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
+++ b/run_entrance/test_suite/test_suite_sb01申报接件.xlsx
@@ -416,8 +416,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -453,14 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,21 +461,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,6 +490,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -517,40 +519,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -565,19 +535,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,6 +557,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -603,187 +603,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,78 +794,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -894,6 +822,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -902,10 +902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,133 +914,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+      <selection activeCell="B16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2146,7 +2146,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
